--- a/teaching/traditional_assets/database/data/russia/russia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_insurance_general.xlsx
@@ -591,28 +591,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.051</v>
+        <v>-0.0482</v>
       </c>
       <c r="E2">
-        <v>0.08210000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>0.2250020307042483</v>
+        <v>0.1925076656445807</v>
       </c>
       <c r="H2">
-        <v>0.2250020307042483</v>
+        <v>0.1925076656445807</v>
       </c>
       <c r="I2">
-        <v>0.2713833157338966</v>
+        <v>0.1713771497133716</v>
       </c>
       <c r="J2">
-        <v>0.2432881187561939</v>
+        <v>0.1653043610634872</v>
       </c>
       <c r="K2">
-        <v>119.5</v>
+        <v>140.7</v>
       </c>
       <c r="L2">
-        <v>0.09706766306555115</v>
+        <v>0.09378749500066656</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>12.3</v>
+        <v>37.2</v>
       </c>
       <c r="V2">
-        <v>0.01113424459129175</v>
+        <v>0.01829358249323826</v>
       </c>
       <c r="W2">
-        <v>0.1813904068002429</v>
+        <v>0.1811277033985582</v>
       </c>
       <c r="X2">
-        <v>0.05905882078260881</v>
+        <v>0.05517301953945103</v>
       </c>
       <c r="Y2">
-        <v>0.1223315860176341</v>
+        <v>0.1259546838591072</v>
       </c>
       <c r="Z2">
-        <v>1.92479674796748</v>
+        <v>1.92827763496144</v>
       </c>
       <c r="AA2">
-        <v>0.4682801798010479</v>
+        <v>0.3187527024003129</v>
       </c>
       <c r="AB2">
-        <v>0.05885388019521436</v>
+        <v>0.05487098010626122</v>
       </c>
       <c r="AC2">
-        <v>0.4094262996058335</v>
+        <v>0.2638817222940517</v>
       </c>
       <c r="AD2">
-        <v>13.5</v>
+        <v>32.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.5</v>
+        <v>32.9</v>
       </c>
       <c r="AG2">
-        <v>1.199999999999999</v>
+        <v>-4.300000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.01207297442318011</v>
+        <v>0.01592140921409214</v>
       </c>
       <c r="AI2">
-        <v>0.01708212071365305</v>
+        <v>0.03806989122888221</v>
       </c>
       <c r="AJ2">
-        <v>0.001085089067727642</v>
+        <v>-0.002119061699191802</v>
       </c>
       <c r="AK2">
-        <v>0.001542416452442158</v>
+        <v>-0.005199516324062883</v>
       </c>
       <c r="AL2">
-        <v>0.576</v>
+        <v>2.21</v>
       </c>
       <c r="AM2">
-        <v>0.576</v>
+        <v>2.21</v>
       </c>
       <c r="AN2">
-        <v>0.03900606761051719</v>
+        <v>0.1243386243386243</v>
       </c>
       <c r="AO2">
-        <v>580.0347222222223</v>
+        <v>116.3348416289593</v>
       </c>
       <c r="AP2">
-        <v>0.003467206009823748</v>
+        <v>-0.01625094482237341</v>
       </c>
       <c r="AQ2">
-        <v>580.0347222222223</v>
+        <v>116.3348416289593</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +722,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.051</v>
+        <v>-0.0482</v>
       </c>
       <c r="E3">
-        <v>0.08210000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
-        <v>0.2250020307042483</v>
+        <v>0.1925076656445807</v>
       </c>
       <c r="H3">
-        <v>0.2250020307042483</v>
+        <v>0.1925076656445807</v>
       </c>
       <c r="I3">
-        <v>0.2713833157338966</v>
+        <v>0.1713771497133716</v>
       </c>
       <c r="J3">
-        <v>0.2432881187561939</v>
+        <v>0.1653043610634872</v>
       </c>
       <c r="K3">
-        <v>119.5</v>
+        <v>140.7</v>
       </c>
       <c r="L3">
-        <v>0.09706766306555115</v>
+        <v>0.09378749500066656</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>12.3</v>
+        <v>37.2</v>
       </c>
       <c r="V3">
-        <v>0.01113424459129175</v>
+        <v>0.01829358249323826</v>
       </c>
       <c r="W3">
-        <v>0.1813904068002429</v>
+        <v>0.1811277033985582</v>
       </c>
       <c r="X3">
-        <v>0.05905882078260881</v>
+        <v>0.05517301953945103</v>
       </c>
       <c r="Y3">
-        <v>0.1223315860176341</v>
+        <v>0.1259546838591072</v>
       </c>
       <c r="Z3">
-        <v>1.92479674796748</v>
+        <v>1.92827763496144</v>
       </c>
       <c r="AA3">
-        <v>0.4682801798010479</v>
+        <v>0.3187527024003129</v>
       </c>
       <c r="AB3">
-        <v>0.05885388019521436</v>
+        <v>0.05487098010626122</v>
       </c>
       <c r="AC3">
-        <v>0.4094262996058335</v>
+        <v>0.2638817222940517</v>
       </c>
       <c r="AD3">
-        <v>13.5</v>
+        <v>32.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.5</v>
+        <v>32.9</v>
       </c>
       <c r="AG3">
-        <v>1.199999999999999</v>
+        <v>-4.300000000000004</v>
       </c>
       <c r="AH3">
-        <v>0.01207297442318011</v>
+        <v>0.01592140921409214</v>
       </c>
       <c r="AI3">
-        <v>0.01708212071365305</v>
+        <v>0.03806989122888221</v>
       </c>
       <c r="AJ3">
-        <v>0.001085089067727642</v>
+        <v>-0.002119061699191802</v>
       </c>
       <c r="AK3">
-        <v>0.001542416452442158</v>
+        <v>-0.005199516324062883</v>
       </c>
       <c r="AL3">
-        <v>0.576</v>
+        <v>2.21</v>
       </c>
       <c r="AM3">
-        <v>0.576</v>
+        <v>2.21</v>
       </c>
       <c r="AN3">
-        <v>0.03900606761051719</v>
+        <v>0.1243386243386243</v>
       </c>
       <c r="AO3">
-        <v>580.0347222222223</v>
+        <v>116.3348416289593</v>
       </c>
       <c r="AP3">
-        <v>0.003467206009823748</v>
+        <v>-0.01625094482237341</v>
       </c>
       <c r="AQ3">
-        <v>580.0347222222223</v>
+        <v>116.3348416289593</v>
       </c>
     </row>
   </sheetData>
